--- a/www/input/donutplot.xlsx
+++ b/www/input/donutplot.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bzhang1/Desktop/Publications/2020_03_QuickR/Demo_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAA9D8F-68CD-BD48-BD9F-4EC919193BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDA4981-CAD3-074C-92C9-34C8CEC30365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25520" yWindow="11280" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25520" yWindow="11280" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Category" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Setting" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1024,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F75157-C346-9F40-8F59-F4DAD6F21677}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
